--- a/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,0</t>
+          <t>-4,57; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 5,42</t>
+          <t>-4,49; 4,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,89</t>
+          <t>-0,89; 5,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,58</t>
+          <t>-1,28; 4,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-91,75; —</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,42</t>
+          <t>-1,15; 0,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,39</t>
+          <t>-1,71; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,14</t>
+          <t>-1,26; 1,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,43</t>
+          <t>-0,13; 2,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,65; 159,61</t>
+          <t>-48,13; 170,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-82,28; 261,42</t>
+          <t>-80,07; 280,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 428,67</t>
+          <t>-20,08; 422,54</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,8</t>
+          <t>-1,25; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,33</t>
+          <t>-0,94; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,54</t>
+          <t>-0,68; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,24</t>
+          <t>-0,22; 2,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,87; 106,15</t>
+          <t>-69,35; 107,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 133,92</t>
+          <t>-46,25; 131,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 202,03</t>
+          <t>-41,71; 196,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 197,96</t>
+          <t>-10,29; 179,97</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,63</t>
+          <t>-0,06; 2,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,13</t>
+          <t>-1,28; 1,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,53</t>
+          <t>-0,42; 1,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 41,16</t>
+          <t>-0,4; 41,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 1390,25</t>
+          <t>-33,58; 1326,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 200,25</t>
+          <t>-70,14; 223,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 670,0</t>
+          <t>-46,48; 786,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 1690,4</t>
+          <t>-14,89; 1978,87</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,23</t>
+          <t>-0,81; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,46</t>
+          <t>-1,23; 1,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,71</t>
+          <t>0,37; 2,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,56</t>
+          <t>-1,45; 1,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 232,21</t>
+          <t>-57,53; 219,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 99,59</t>
+          <t>-43,54; 99,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,23; 577,29</t>
+          <t>22,73; 583,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 75,36</t>
+          <t>-38,1; 81,3</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,72</t>
+          <t>-0,31; 0,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,92</t>
+          <t>-0,46; 0,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,21</t>
+          <t>0,07; 1,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 13,43</t>
+          <t>0,4; 12,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 105,85</t>
+          <t>-29,84; 106,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 62,73</t>
+          <t>-21,21; 64,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 162,04</t>
+          <t>2,62; 165,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 726,53</t>
+          <t>14,98; 625,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-39,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>200,16%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>126,51%</t>
+          <t>110,62%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 0,0</t>
+          <t>-1,12; 0,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 4,82</t>
+          <t>-1,37; 2,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,96</t>
+          <t>-1,03; 1,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,74</t>
+          <t>-0,1; 2,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 254,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,8; 148,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,74; 236,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-91,75; —</t>
+          <t>-11,08; 357,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-47,9%</t>
+          <t>-5,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>104,7%</t>
+          <t>90,87%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,4</t>
+          <t>-1,12; 0,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,55</t>
+          <t>-0,94; 1,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,06</t>
+          <t>-0,68; 1,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 2,39</t>
+          <t>0,05; 2,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,36; 120,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,13; 170,08</t>
+          <t>-46,25; 131,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,07; 280,4</t>
+          <t>-41,71; 196,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 422,54</t>
+          <t>2,71; 299,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>21,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,19%</t>
+          <t>238,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>691,98%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,81</t>
+          <t>-0,06; 2,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,37</t>
+          <t>-1,28; 1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,45</t>
+          <t>-0,42; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,2</t>
+          <t>-0,52; 57,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,35; 107,9</t>
+          <t>-33,58; 1326,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 131,3</t>
+          <t>-70,14; 223,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 196,69</t>
+          <t>-46,48; 786,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 179,97</t>
+          <t>-17,1; 2932,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>238,79%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>181,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>381,16%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,47</t>
+          <t>-0,81; 1,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,07</t>
+          <t>-1,23; 1,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,56</t>
+          <t>0,46; 2,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 41,82</t>
+          <t>-1,63; 1,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 1326,09</t>
+          <t>-57,53; 219,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,14; 223,02</t>
+          <t>-43,54; 99,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,48; 786,82</t>
+          <t>28,6; 589,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 1978,87</t>
+          <t>-41,59; 78,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>170,42%</t>
+          <t>71,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>288,49%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,12</t>
+          <t>-0,26; 0,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,5</t>
+          <t>-0,46; 0,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,66</t>
+          <t>0,11; 1,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,69</t>
+          <t>0,45; 22,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-57,53; 219,34</t>
+          <t>-26,02; 112,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 99,06</t>
+          <t>-21,21; 64,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,73; 583,11</t>
+          <t>4,71; 172,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 81,3</t>
+          <t>18,61; 1231,89</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>22,12%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>12,53%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>69,26%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>149,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 0,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 0,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 1,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 12,93</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-29,84; 106,94</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-21,21; 64,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 165,96</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,98; 625,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Habitat-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,52</t>
+          <t>-1,15; 0,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,39</t>
+          <t>-1,48; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,21</t>
+          <t>-0,92; 1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,49</t>
+          <t>0,15; 2,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 254,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 148,27</t>
+          <t>-41,91; 157,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,74; 236,04</t>
+          <t>-62,06; 249,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 357,85</t>
+          <t>-3,2; 422,25</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,93</t>
+          <t>-1,01; 1,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,37</t>
+          <t>-0,78; 1,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,45</t>
+          <t>-0,83; 1,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,53</t>
+          <t>0,16; 2,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,36; 120,65</t>
+          <t>-62,59; 170,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 131,3</t>
+          <t>-42,05; 138,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 196,69</t>
+          <t>-47,26; 204,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 299,38</t>
+          <t>5,26; 289,86</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,47</t>
+          <t>0,25; 2,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,07</t>
+          <t>-1,13; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,56</t>
+          <t>-0,46; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 57,28</t>
+          <t>-0,67; 53,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 1326,09</t>
+          <t>-20,22; 1455,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,14; 223,02</t>
+          <t>-69,91; 206,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,48; 786,82</t>
+          <t>-60,67; 771,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 2932,5</t>
+          <t>-20,94; 2729,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,12</t>
+          <t>-0,84; 1,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,5</t>
+          <t>-1,29; 1,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,75</t>
+          <t>0,45; 2,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,61</t>
+          <t>-1,78; 1,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,53; 219,34</t>
+          <t>-61,1; 224,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 99,06</t>
+          <t>-45,66; 108,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 589,0</t>
+          <t>10,88; 543,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 78,31</t>
+          <t>-43,96; 84,68</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,78</t>
+          <t>-0,24; 0,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,93</t>
+          <t>-0,51; 0,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,24</t>
+          <t>0,14; 1,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 22,24</t>
+          <t>0,51; 23,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 112,17</t>
+          <t>-23,18; 109,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 64,26</t>
+          <t>-23,3; 64,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 172,69</t>
+          <t>10,55; 179,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,61; 1231,89</t>
+          <t>21,85; 1267,66</t>
         </is>
       </c>
     </row>
